--- a/data/data_model_sample_1.xlsx
+++ b/data/data_model_sample_1.xlsx
@@ -1,50 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinhht/ai_projects/survey_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A41D08A-D0ED-E442-8A29-5585C41C8144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B48F988-6056-F14F-A5B1-597A09D2CEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1620" windowWidth="22120" windowHeight="12460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic" sheetId="1" r:id="rId1"/>
     <sheet name="Independent" sheetId="2" r:id="rId2"/>
     <sheet name="Dependent" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>number_questions</t>
+  </si>
+  <si>
+    <t>col_index_from</t>
+  </si>
+  <si>
+    <t>TARGET1 (Satisfied)</t>
+  </si>
+  <si>
+    <t>TARGET2 (Recommend)</t>
+  </si>
+  <si>
+    <t>TARGET3 (Continue)</t>
+  </si>
+  <si>
+    <t>TC (Reliability)</t>
+  </si>
+  <si>
+    <t>DU (Responsiveness)</t>
+  </si>
+  <si>
+    <t>HH (Tangible)</t>
+  </si>
+  <si>
+    <t>DC (Empathy)</t>
+  </si>
+  <si>
+    <t>PV (Supportive)</t>
+  </si>
+  <si>
     <t>number_options</t>
   </si>
   <si>
     <t>col_index</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>categorical</t>
-  </si>
-  <si>
-    <t>number_questions</t>
-  </si>
-  <si>
-    <t>col_index_from</t>
-  </si>
-  <si>
     <t>Usage_Since</t>
   </si>
   <si>
@@ -57,44 +75,17 @@
     <t>Income</t>
   </si>
   <si>
+    <t>Daily_Usage_Frequence</t>
+  </si>
+  <si>
     <t>Gender</t>
-  </si>
-  <si>
-    <t>Daily_Usage_Frequence</t>
-  </si>
-  <si>
-    <t>likert</t>
-  </si>
-  <si>
-    <t>TC (Reliability)</t>
-  </si>
-  <si>
-    <t>DU (Responsiveness)</t>
-  </si>
-  <si>
-    <t>HH (Tangible)</t>
-  </si>
-  <si>
-    <t>DC (Empathy</t>
-  </si>
-  <si>
-    <t>PV (Supportive)</t>
-  </si>
-  <si>
-    <t>TARGET1 (Satisfied)</t>
-  </si>
-  <si>
-    <t>TARGET2 (Recommend)</t>
-  </si>
-  <si>
-    <t>TARGET3 (Continue)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,10 +96,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -129,46 +125,53 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -176,16 +179,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -247,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,26 +292,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,23 +327,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,7 +350,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -383,31 +360,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -429,7 +406,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -487,7 +464,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -500,13 +477,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -525,116 +501,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C7" s="3">
         <v>9</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -644,101 +601,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
+      <c r="C3" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
+      <c r="B5" s="3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
+      <c r="C6" s="3">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -748,74 +690,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+      <c r="C4" s="3">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
